--- a/combined_cloudlet_summary.xlsx
+++ b/combined_cloudlet_summary.xlsx
@@ -472,21 +472,21 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>802</v>
+        <v>847</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2b26e0ae-952e-4ae9-a555-3df26173cd26</t>
+          <t>5767238c-0203-4273-ad0f-934cb3572d6e</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>96.875</v>
+        <v>96.484375</v>
       </c>
       <c r="F2" t="n">
-        <v>0.32</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="3">
@@ -496,21 +496,21 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>802</v>
+        <v>847</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>55d51359-a44c-4368-83bd-193240b016f4</t>
+          <t>9b0f2ab4-5a88-4327-ae9b-b5852630e841</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>57.4951171875</v>
+        <v>60.9130859375</v>
       </c>
       <c r="F3" t="n">
-        <v>1.19</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="4">
@@ -520,21 +520,21 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>802</v>
+        <v>847</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5e7e0b2d-318a-4dc0-b665-c0ab952047cc</t>
+          <t>71d1f4ec-7e9f-409f-8c66-75a31f523b33</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>24.072265625</v>
+        <v>24.365234375</v>
       </c>
       <c r="F4" t="n">
-        <v>1.19</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="5">
@@ -544,21 +544,21 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>843</v>
+        <v>806</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>55d51359-a44c-4368-83bd-193240b016f4</t>
+          <t>9b0f2ab4-5a88-4327-ae9b-b5852630e841</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>60.05859375</v>
+        <v>59.814453125</v>
       </c>
       <c r="F5" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="6">
@@ -568,21 +568,21 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>843</v>
+        <v>806</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2b26e0ae-952e-4ae9-a555-3df26173cd26</t>
+          <t>5767238c-0203-4273-ad0f-934cb3572d6e</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>97.0703125</v>
+        <v>96.484375</v>
       </c>
       <c r="F6" t="n">
-        <v>1.25</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="7">
@@ -592,21 +592,21 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>843</v>
+        <v>806</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5e7e0b2d-318a-4dc0-b665-c0ab952047cc</t>
+          <t>71d1f4ec-7e9f-409f-8c66-75a31f523b33</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>24.21875</v>
+        <v>23.974609375</v>
       </c>
       <c r="F7" t="n">
-        <v>1.28</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="8">
@@ -616,21 +616,21 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>781</v>
+        <v>797</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>55d51359-a44c-4368-83bd-193240b016f4</t>
+          <t>9b0f2ab4-5a88-4327-ae9b-b5852630e841</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>100</v>
       </c>
       <c r="E8" t="n">
-        <v>61.03515625</v>
+        <v>60.1806640625</v>
       </c>
       <c r="F8" t="n">
-        <v>0.33</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="9">
@@ -640,21 +640,21 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>781</v>
+        <v>797</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2b26e0ae-952e-4ae9-a555-3df26173cd26</t>
+          <t>5767238c-0203-4273-ad0f-934cb3572d6e</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>96.2890625</v>
+        <v>96.484375</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5499999999999999</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="10">
@@ -664,21 +664,21 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>781</v>
+        <v>797</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5e7e0b2d-318a-4dc0-b665-c0ab952047cc</t>
+          <t>71d1f4ec-7e9f-409f-8c66-75a31f523b33</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>100</v>
       </c>
       <c r="E10" t="n">
-        <v>23.046875</v>
+        <v>24.169921875</v>
       </c>
       <c r="F10" t="n">
-        <v>1.44</v>
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -688,21 +688,21 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>786</v>
+        <v>750</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2b26e0ae-952e-4ae9-a555-3df26173cd26</t>
+          <t>9b0f2ab4-5a88-4327-ae9b-b5852630e841</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>100</v>
       </c>
       <c r="E11" t="n">
-        <v>97.4609375</v>
+        <v>60.6689453125</v>
       </c>
       <c r="F11" t="n">
-        <v>0.72</v>
+        <v>0.9400000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -712,21 +712,21 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>786</v>
+        <v>750</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>55d51359-a44c-4368-83bd-193240b016f4</t>
+          <t>5767238c-0203-4273-ad0f-934cb3572d6e</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>100</v>
       </c>
       <c r="E12" t="n">
-        <v>57.7392578125</v>
+        <v>95.703125</v>
       </c>
       <c r="F12" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="13">
@@ -736,21 +736,21 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>786</v>
+        <v>750</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5e7e0b2d-318a-4dc0-b665-c0ab952047cc</t>
+          <t>71d1f4ec-7e9f-409f-8c66-75a31f523b33</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>100</v>
       </c>
       <c r="E13" t="n">
-        <v>23.095703125</v>
+        <v>24.072265625</v>
       </c>
       <c r="F13" t="n">
-        <v>1.25</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
   </sheetData>
